--- a/Data/Payment Method.xlsx
+++ b/Data/Payment Method.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5FC276-DFBE-4692-B879-0AF1C717A3C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCFB8F8-A4B2-4DD3-91D9-EFD8B3B99A4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
   <si>
     <t>cardNumber</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t>missing_cvc</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
   </si>
 </sst>
 </file>
@@ -428,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,11 +445,11 @@
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -457,10 +463,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -474,10 +483,13 @@
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -491,10 +503,13 @@
         <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -508,10 +523,13 @@
         <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -525,10 +543,13 @@
         <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -542,10 +563,13 @@
         <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -559,10 +583,13 @@
         <v>6</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
         <v>5</v>
@@ -574,10 +601,13 @@
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -589,10 +619,13 @@
         <v>6</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -604,10 +637,13 @@
         <v>6</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
@@ -619,6 +655,9 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>20</v>
       </c>
     </row>
